--- a/BELtd_HDFC_UTR/Data/Config.xlsx
+++ b/BELtd_HDFC_UTR/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BRADSOL\Documents\UiPath\BELtd_HDFC_UTR\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F510F9BA-D4DB-4247-82D0-A1BD52CC7B47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2513487C-4EF8-4CFE-9323-5AF4DED4D5B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -965,10 +965,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1012"/>
+  <dimension ref="A1:Z1011"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1070,185 +1070,184 @@
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" t="s">
-        <v>101</v>
+        <v>161</v>
       </c>
       <c r="B11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A14" t="s">
         <v>159</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B14" s="9" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A13" t="s">
-        <v>161</v>
-      </c>
-      <c r="B13" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="1:26" ht="15" customHeight="1">
+      <c r="A15" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A16" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15" customHeight="1">
+      <c r="A17" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B17" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="19" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A19" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B19" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="4"/>
-    </row>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="4"/>
-    </row>
-    <row r="17" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A17" s="4" t="s">
+      <c r="C19" s="4"/>
+    </row>
+    <row r="20" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="4"/>
+    </row>
+    <row r="21" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A21" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B21" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C21" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A18" s="4" t="s">
+    <row r="22" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A22" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B22" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C22" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A19" s="4" t="s">
+    <row r="23" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A23" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B23" s="4" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A21" t="s">
+    <row r="25" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A25" t="s">
         <v>140</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B25" s="4" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A22" t="s">
+    <row r="26" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A26" t="s">
         <v>141</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B26" s="4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="14.25" customHeight="1">
-      <c r="B23" s="4"/>
-    </row>
-    <row r="25" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A25" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15" customHeight="1">
-      <c r="A26" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="B26" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15" customHeight="1">
-      <c r="A27" s="4"/>
-    </row>
-    <row r="28" spans="1:3" ht="15" customHeight="1">
-      <c r="A28" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="B28" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="27" spans="1:3" ht="14.25" customHeight="1">
+      <c r="B27" s="4"/>
+    </row>
+    <row r="28" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="29" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" t="s">
+        <v>53</v>
+      </c>
+    </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1">
       <c r="A30" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B30" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1">
       <c r="A31" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1">
       <c r="A32" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B32" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="14.25" customHeight="1">
       <c r="A33" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B33" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A34" t="s">
-        <v>62</v>
-      </c>
-      <c r="B34" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="36" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A36" t="s">
+    <row r="34" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="35" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A35" t="s">
         <v>152</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B35" t="s">
         <v>151</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
-      <c r="B37" s="4"/>
-    </row>
+    <row r="36" spans="1:3">
+      <c r="B36" s="4"/>
+    </row>
+    <row r="37" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="38" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="39" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="40" spans="1:3"/>
+    <row r="39" spans="1:3"/>
+    <row r="40" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="41" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="42" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="43" spans="1:3"/>
+    <row r="42" spans="1:3"/>
+    <row r="43" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="44" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="45" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="45" spans="1:3"/>
     <row r="46" spans="1:3"/>
-    <row r="47" spans="1:3"/>
+    <row r="47" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="48" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="49" ht="14.25" customHeight="1"/>
     <row r="50" ht="14.25" customHeight="1"/>
@@ -2213,11 +2212,10 @@
     <row r="1009" ht="14.25" customHeight="1"/>
     <row r="1010" ht="14.25" customHeight="1"/>
     <row r="1011" ht="14.25" customHeight="1"/>
-    <row r="1012" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <hyperlinks>
-    <hyperlink ref="B25" r:id="rId1" xr:uid="{BE3800E5-4AA0-48DE-8F2D-931BEB786182}"/>
+    <hyperlink ref="B16" r:id="rId1" xr:uid="{BE3800E5-4AA0-48DE-8F2D-931BEB786182}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -2226,10 +2224,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z1022"/>
+  <dimension ref="A1:Z1023"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2426,366 +2424,369 @@
       <c r="B20" s="4"/>
       <c r="C20" s="3"/>
     </row>
-    <row r="21" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A21" s="4" t="s">
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A23" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B23" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A22" s="4"/>
-    </row>
-    <row r="23" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A23" s="4"/>
-    </row>
     <row r="24" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A24" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="26" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A26" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" t="s">
-        <v>157</v>
-      </c>
-    </row>
+      <c r="A24" s="4"/>
+    </row>
+    <row r="25" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A25" s="4"/>
+    </row>
+    <row r="26" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="27" spans="1:3" ht="14.25" customHeight="1">
       <c r="A27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A28" t="s">
         <v>56</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="29" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A29" t="s">
+    <row r="29" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="30" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A30" t="s">
         <v>93</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B30" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="14.25" customHeight="1">
-      <c r="B30" s="7"/>
-    </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A31" t="s">
+      <c r="B31" s="7"/>
+    </row>
+    <row r="32" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A32" t="s">
         <v>162</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B32" s="7" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
-      <c r="B32" s="4"/>
-      <c r="C32" s="3"/>
-    </row>
-    <row r="33" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A33" t="s">
-        <v>76</v>
-      </c>
-      <c r="B33" t="s">
-        <v>77</v>
-      </c>
+    <row r="33" spans="1:3">
+      <c r="B33" s="4"/>
+      <c r="C33" s="3"/>
     </row>
     <row r="34" spans="1:3" ht="14.25" customHeight="1">
       <c r="A34" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A35" t="s">
         <v>79</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B35" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="14.25" customHeight="1">
-      <c r="B35" s="5"/>
-    </row>
     <row r="36" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A36" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>39</v>
-      </c>
+      <c r="B36" s="5"/>
     </row>
     <row r="37" spans="1:3" ht="14.25" customHeight="1">
       <c r="A37" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
-      <c r="B38" s="4"/>
-      <c r="C38" s="3"/>
-    </row>
-    <row r="39" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A39" t="s">
-        <v>63</v>
-      </c>
-      <c r="B39" t="s">
-        <v>68</v>
-      </c>
+    <row r="38" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A38" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="B39" s="4"/>
+      <c r="C39" s="3"/>
     </row>
     <row r="40" spans="1:3" ht="14.25" customHeight="1">
       <c r="A40" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A41" t="s">
         <v>64</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B41" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="42" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A42" t="s">
-        <v>65</v>
-      </c>
-      <c r="B42" t="s">
-        <v>67</v>
-      </c>
-    </row>
+    <row r="42" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="43" spans="1:3" ht="14.25" customHeight="1">
       <c r="A43" t="s">
+        <v>65</v>
+      </c>
+      <c r="B43" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A44" t="s">
         <v>66</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B44" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="46" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A46" t="s">
-        <v>70</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>121</v>
-      </c>
-    </row>
+    <row r="45" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="47" spans="1:3" ht="14.25" customHeight="1">
       <c r="A47" t="s">
+        <v>70</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A48" t="s">
         <v>69</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B48" s="8" t="s">
         <v>133</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A49" t="s">
-        <v>72</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="14.25" customHeight="1">
       <c r="A50" t="s">
+        <v>72</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A51" t="s">
         <v>71</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B51" s="8" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="52" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A52" t="s">
-        <v>74</v>
-      </c>
-      <c r="B52" t="s">
-        <v>122</v>
-      </c>
-    </row>
+    <row r="52" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="53" spans="1:2" ht="14.25" customHeight="1">
       <c r="A53" t="s">
+        <v>74</v>
+      </c>
+      <c r="B53" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A54" t="s">
         <v>75</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B54" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="14.25" customHeight="1">
-      <c r="B54" s="2"/>
-    </row>
     <row r="55" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A55" t="s">
-        <v>106</v>
-      </c>
-      <c r="B55" t="s">
-        <v>105</v>
-      </c>
+      <c r="B55" s="2"/>
     </row>
     <row r="56" spans="1:2" ht="14.25" customHeight="1">
       <c r="A56" t="s">
+        <v>106</v>
+      </c>
+      <c r="B56" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A57" t="s">
         <v>107</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="B57" s="8" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="58" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A58" t="s">
-        <v>108</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
+    <row r="58" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="59" spans="1:2" ht="14.25" customHeight="1">
       <c r="A59" t="s">
+        <v>108</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A60" t="s">
         <v>109</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="B60" s="8" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="61" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A61" t="s">
-        <v>110</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>105</v>
-      </c>
-    </row>
+    <row r="61" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="62" spans="1:2" ht="14.25" customHeight="1">
       <c r="A62" t="s">
+        <v>110</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A63" t="s">
         <v>111</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="B63" s="8" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="64" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A64" t="s">
-        <v>112</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>105</v>
-      </c>
-    </row>
+    <row r="64" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="65" spans="1:2" ht="14.25" customHeight="1">
       <c r="A65" t="s">
+        <v>112</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A66" t="s">
         <v>113</v>
       </c>
-      <c r="B65" s="8" t="s">
+      <c r="B66" s="8" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="67" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A67" t="s">
-        <v>114</v>
-      </c>
-      <c r="B67" t="s">
-        <v>105</v>
-      </c>
-    </row>
+    <row r="67" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="68" spans="1:2" ht="14.25" customHeight="1">
       <c r="A68" t="s">
+        <v>114</v>
+      </c>
+      <c r="B68" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A69" t="s">
         <v>115</v>
       </c>
-      <c r="B68" s="8" t="s">
+      <c r="B69" s="8" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="70" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A70" t="s">
-        <v>116</v>
-      </c>
-      <c r="B70" s="8" t="s">
-        <v>105</v>
-      </c>
-    </row>
+    <row r="70" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="71" spans="1:2" ht="14.25" customHeight="1">
       <c r="A71" t="s">
+        <v>116</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A72" t="s">
         <v>117</v>
       </c>
-      <c r="B71" s="8" t="s">
+      <c r="B72" s="8" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="73" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A73" t="s">
-        <v>118</v>
-      </c>
-      <c r="B73" s="8" t="s">
-        <v>119</v>
-      </c>
-    </row>
+    <row r="73" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="74" spans="1:2" ht="14.25" customHeight="1">
       <c r="A74" t="s">
+        <v>118</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A75" t="s">
         <v>129</v>
       </c>
-      <c r="B74" s="8" t="s">
+      <c r="B75" s="8" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="76" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A76" t="s">
-        <v>123</v>
-      </c>
-      <c r="B76" s="8" t="s">
-        <v>124</v>
-      </c>
-    </row>
+    <row r="76" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="77" spans="1:2" ht="14.25" customHeight="1">
       <c r="A77" t="s">
+        <v>123</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A78" t="s">
         <v>125</v>
       </c>
-      <c r="B77" s="8" t="s">
+      <c r="B78" s="8" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="14.25" customHeight="1">
-      <c r="B78" s="8"/>
-    </row>
     <row r="79" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A79" t="s">
-        <v>147</v>
-      </c>
-      <c r="B79" s="8" t="s">
-        <v>149</v>
-      </c>
+      <c r="B79" s="8"/>
     </row>
     <row r="80" spans="1:2" ht="14.25" customHeight="1">
       <c r="A80" t="s">
+        <v>147</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A81" t="s">
         <v>148</v>
       </c>
-      <c r="B80" s="8" t="s">
+      <c r="B81" s="8" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="82" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A82" t="s">
-        <v>96</v>
-      </c>
-      <c r="B82" t="s">
-        <v>97</v>
-      </c>
-    </row>
+    <row r="82" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="83" spans="1:2" ht="14.25" customHeight="1">
       <c r="A83" t="s">
+        <v>96</v>
+      </c>
+      <c r="B83" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A84" t="s">
         <v>98</v>
       </c>
-      <c r="B83" s="7">
+      <c r="B84" s="7">
         <v>587</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="85" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="86" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="87" spans="1:2" ht="14.25" customHeight="1"/>
@@ -3724,12 +3725,13 @@
     <row r="1020" ht="14.25" customHeight="1"/>
     <row r="1021" ht="14.25" customHeight="1"/>
     <row r="1022" ht="14.25" customHeight="1"/>
+    <row r="1023" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <hyperlinks>
-    <hyperlink ref="B36" r:id="rId1" xr:uid="{F19909F1-85DB-4E23-B380-9D1AF9BD4AB0}"/>
-    <hyperlink ref="B34" r:id="rId2" xr:uid="{E8EB690E-788E-469D-948B-38D2F80252DF}"/>
-    <hyperlink ref="B37" r:id="rId3" xr:uid="{D578C2D8-D83E-4A95-AC4B-85AD1BF7983A}"/>
+    <hyperlink ref="B37" r:id="rId1" xr:uid="{F19909F1-85DB-4E23-B380-9D1AF9BD4AB0}"/>
+    <hyperlink ref="B35" r:id="rId2" xr:uid="{E8EB690E-788E-469D-948B-38D2F80252DF}"/>
+    <hyperlink ref="B38" r:id="rId3" xr:uid="{D578C2D8-D83E-4A95-AC4B-85AD1BF7983A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BELtd_HDFC_UTR/Data/Config.xlsx
+++ b/BELtd_HDFC_UTR/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BRADSOL\Documents\UiPath\BELtd_HDFC_UTR\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2513487C-4EF8-4CFE-9323-5AF4DED4D5B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D879A96D-BE95-4BB6-952E-DA559709AC7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -296,9 +296,6 @@
     <t>SummaryReportFileSavingPath</t>
   </si>
   <si>
-    <t>C:\Users\BRADSOL\Documents\UiPath\BELtd_HDFC_UTR\Data\Output\SummaryReport-</t>
-  </si>
-  <si>
     <t>AttachmentSavingFolderPath</t>
   </si>
   <si>
@@ -571,6 +568,9 @@
   </si>
   <si>
     <t>@SQL= urn:schemas:httpmail:subject LIKE '%Vendor_Payments%'</t>
+  </si>
+  <si>
+    <t>C:\Users\BRADSOL\Documents\UiPath\BELtd_HDFC_UTR\Data\Output\SummaryReport-</t>
   </si>
 </sst>
 </file>
@@ -967,8 +967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1011"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1015,18 +1015,18 @@
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>83</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>86</v>
@@ -1034,10 +1034,10 @@
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
       <c r="A5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
@@ -1045,24 +1045,24 @@
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" t="s">
         <v>103</v>
-      </c>
-      <c r="B8" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B10" t="s">
         <v>83</v>
@@ -1070,51 +1070,51 @@
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B12" t="s">
         <v>101</v>
-      </c>
-      <c r="B12" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="15" customHeight="1">
       <c r="A15" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B15" t="s">
         <v>165</v>
-      </c>
-      <c r="B15" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
       <c r="A16" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1">
       <c r="A17" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B17" t="s">
         <v>145</v>
-      </c>
-      <c r="B17" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1"/>
@@ -1140,7 +1140,7 @@
         <v>85</v>
       </c>
       <c r="C21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14.25" customHeight="1">
@@ -1148,34 +1148,34 @@
         <v>88</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>89</v>
+        <v>168</v>
       </c>
       <c r="C22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1">
       <c r="A23" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="14.25" customHeight="1">
       <c r="A26" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="14.25" customHeight="1">
@@ -1225,13 +1225,13 @@
     <row r="34" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="35" spans="1:3" ht="14.25" customHeight="1">
       <c r="A35" t="s">
+        <v>151</v>
+      </c>
+      <c r="B35" t="s">
+        <v>150</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="B35" t="s">
-        <v>151</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -2414,7 +2414,7 @@
         <v>20</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>21</v>
@@ -2438,10 +2438,10 @@
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1">
       <c r="A23" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14.25" customHeight="1">
@@ -2456,7 +2456,7 @@
         <v>52</v>
       </c>
       <c r="B27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="14.25" customHeight="1">
@@ -2470,7 +2470,7 @@
     <row r="29" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="30" spans="1:3" ht="14.25" customHeight="1">
       <c r="A30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B30" s="7">
         <v>3</v>
@@ -2481,10 +2481,10 @@
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1">
       <c r="A32" t="s">
+        <v>161</v>
+      </c>
+      <c r="B32" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -2560,7 +2560,7 @@
         <v>66</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="14.25" customHeight="1"/>
@@ -2569,7 +2569,7 @@
         <v>70</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="14.25" customHeight="1">
@@ -2577,7 +2577,7 @@
         <v>69</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="14.25" customHeight="1">
@@ -2585,7 +2585,7 @@
         <v>72</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="14.25" customHeight="1">
@@ -2593,7 +2593,7 @@
         <v>71</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="14.25" customHeight="1"/>
@@ -2602,7 +2602,7 @@
         <v>74</v>
       </c>
       <c r="B53" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="14.25" customHeight="1">
@@ -2610,7 +2610,7 @@
         <v>75</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="14.25" customHeight="1">
@@ -2618,137 +2618,137 @@
     </row>
     <row r="56" spans="1:2" ht="14.25" customHeight="1">
       <c r="A56" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B56" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="14.25" customHeight="1">
       <c r="A57" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="59" spans="1:2" ht="14.25" customHeight="1">
       <c r="A59" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="14.25" customHeight="1">
       <c r="A60" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="62" spans="1:2" ht="14.25" customHeight="1">
       <c r="A62" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="14.25" customHeight="1">
       <c r="A63" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="65" spans="1:2" ht="14.25" customHeight="1">
       <c r="A65" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="14.25" customHeight="1">
       <c r="A66" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="68" spans="1:2" ht="14.25" customHeight="1">
       <c r="A68" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B68" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="14.25" customHeight="1">
       <c r="A69" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="71" spans="1:2" ht="14.25" customHeight="1">
       <c r="A71" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="14.25" customHeight="1">
       <c r="A72" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="74" spans="1:2" ht="14.25" customHeight="1">
       <c r="A74" t="s">
+        <v>117</v>
+      </c>
+      <c r="B74" s="8" t="s">
         <v>118</v>
-      </c>
-      <c r="B74" s="8" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="14.25" customHeight="1">
       <c r="A75" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="77" spans="1:2" ht="14.25" customHeight="1">
       <c r="A77" t="s">
+        <v>122</v>
+      </c>
+      <c r="B77" s="8" t="s">
         <v>123</v>
-      </c>
-      <c r="B77" s="8" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="14.25" customHeight="1">
       <c r="A78" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="14.25" customHeight="1">
@@ -2756,32 +2756,32 @@
     </row>
     <row r="80" spans="1:2" ht="14.25" customHeight="1">
       <c r="A80" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="14.25" customHeight="1">
       <c r="A81" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="83" spans="1:2" ht="14.25" customHeight="1">
       <c r="A83" t="s">
+        <v>95</v>
+      </c>
+      <c r="B83" t="s">
         <v>96</v>
-      </c>
-      <c r="B83" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="14.25" customHeight="1">
       <c r="A84" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B84" s="7">
         <v>587</v>

--- a/BELtd_HDFC_UTR/Data/Config.xlsx
+++ b/BELtd_HDFC_UTR/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BRADSOL\Documents\UiPath\BELtd_HDFC_UTR\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D879A96D-BE95-4BB6-952E-DA559709AC7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F752F65F-93F8-462F-B17A-C086CFF0839F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -555,22 +555,22 @@
     <t>C:\Users\BRADSOL\Documents\GitHub\brad-uipath\BRADSOL_Reusable_Tasks\Send Mail\Send Mail.xaml</t>
   </si>
   <si>
+    <t>HDFCMailFilter</t>
+  </si>
+  <si>
+    <t>[From]='Enetadvicemailing@hdfcbank.net'</t>
+  </si>
+  <si>
+    <t>Enetadvicemailing@hdfcbank.net</t>
+  </si>
+  <si>
+    <t>@SQL= urn:schemas:httpmail:subject LIKE '%Vendor_Payments%'</t>
+  </si>
+  <si>
+    <t>C:\Users\BRADSOL\Documents\UiPath\BELtd_HDFC_UTR\Data\Output\SummaryReport-</t>
+  </si>
+  <si>
     <t>Inbox</t>
-  </si>
-  <si>
-    <t>HDFCMailFilter</t>
-  </si>
-  <si>
-    <t>[From]='Enetadvicemailing@hdfcbank.net'</t>
-  </si>
-  <si>
-    <t>Enetadvicemailing@hdfcbank.net</t>
-  </si>
-  <si>
-    <t>@SQL= urn:schemas:httpmail:subject LIKE '%Vendor_Payments%'</t>
-  </si>
-  <si>
-    <t>C:\Users\BRADSOL\Documents\UiPath\BELtd_HDFC_UTR\Data\Output\SummaryReport-</t>
   </si>
 </sst>
 </file>
@@ -967,8 +967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1011"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1090,15 +1090,15 @@
         <v>158</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="15" customHeight="1">
       <c r="A15" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B15" t="s">
         <v>164</v>
-      </c>
-      <c r="B15" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
@@ -1106,7 +1106,7 @@
         <v>93</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1">
@@ -1148,7 +1148,7 @@
         <v>88</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C22" t="s">
         <v>157</v>
@@ -2226,8 +2226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1023"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2441,7 +2441,7 @@
         <v>91</v>
       </c>
       <c r="B23" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14.25" customHeight="1">

--- a/BELtd_HDFC_UTR/Data/Config.xlsx
+++ b/BELtd_HDFC_UTR/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BRADSOL\Documents\UiPath\BELtd_HDFC_UTR\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F752F65F-93F8-462F-B17A-C086CFF0839F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F02A421-169C-4A38-B6A4-6B777F419173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="175">
   <si>
     <t>Name</t>
   </si>
@@ -571,6 +571,24 @@
   </si>
   <si>
     <t>Inbox</t>
+  </si>
+  <si>
+    <t>Beneficiary Code :[0-9]{5}</t>
+  </si>
+  <si>
+    <t>[0-9]{5}</t>
+  </si>
+  <si>
+    <t>HDFCUTR_VendorCode_Regex_WithText</t>
+  </si>
+  <si>
+    <t>HDFCUTR_VendorCode_Regex_WithoutText</t>
+  </si>
+  <si>
+    <t>Validation Status</t>
+  </si>
+  <si>
+    <t>MasterFileValidationStatusColumnName</t>
   </si>
 </sst>
 </file>
@@ -965,10 +983,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1011"/>
+  <dimension ref="A1:Z1013"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1222,33 +1240,47 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="34" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A34" t="s">
+        <v>171</v>
+      </c>
+      <c r="B34" t="s">
+        <v>169</v>
+      </c>
+    </row>
     <row r="35" spans="1:3" ht="14.25" customHeight="1">
       <c r="A35" t="s">
+        <v>172</v>
+      </c>
+      <c r="B35" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="37" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A37" t="s">
         <v>151</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B37" t="s">
         <v>150</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
-      <c r="B36" s="4"/>
-    </row>
-    <row r="37" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="38" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="39" spans="1:3"/>
+    <row r="38" spans="1:3">
+      <c r="B38" s="4"/>
+    </row>
+    <row r="39" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="40" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="41" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="42" spans="1:3"/>
+    <row r="41" spans="1:3"/>
+    <row r="42" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="43" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="44" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="45" spans="1:3"/>
-    <row r="46" spans="1:3"/>
-    <row r="47" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="48" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="44" spans="1:3"/>
+    <row r="45" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="46" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="47" spans="1:3"/>
+    <row r="48" spans="1:3"/>
     <row r="49" ht="14.25" customHeight="1"/>
     <row r="50" ht="14.25" customHeight="1"/>
     <row r="51" ht="14.25" customHeight="1"/>
@@ -2212,6 +2244,8 @@
     <row r="1009" ht="14.25" customHeight="1"/>
     <row r="1010" ht="14.25" customHeight="1"/>
     <row r="1011" ht="14.25" customHeight="1"/>
+    <row r="1012" ht="14.25" customHeight="1"/>
+    <row r="1013" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -2226,8 +2260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1023"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2788,7 +2822,14 @@
       </c>
     </row>
     <row r="85" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="86" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="86" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A86" t="s">
+        <v>174</v>
+      </c>
+      <c r="B86" t="s">
+        <v>173</v>
+      </c>
+    </row>
     <row r="87" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="88" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="89" spans="1:2" ht="14.25" customHeight="1"/>

--- a/BELtd_HDFC_UTR/Data/Config.xlsx
+++ b/BELtd_HDFC_UTR/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BRADSOL\Documents\UiPath\BELtd_HDFC_UTR\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F02A421-169C-4A38-B6A4-6B777F419173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A75B1E7-D738-4E9C-AA5E-82C658B84B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="183">
   <si>
     <t>Name</t>
   </si>
@@ -558,9 +558,6 @@
     <t>HDFCMailFilter</t>
   </si>
   <si>
-    <t>[From]='Enetadvicemailing@hdfcbank.net'</t>
-  </si>
-  <si>
     <t>Enetadvicemailing@hdfcbank.net</t>
   </si>
   <si>
@@ -570,12 +567,6 @@
     <t>C:\Users\BRADSOL\Documents\UiPath\BELtd_HDFC_UTR\Data\Output\SummaryReport-</t>
   </si>
   <si>
-    <t>Inbox</t>
-  </si>
-  <si>
-    <t>Beneficiary Code :[0-9]{5}</t>
-  </si>
-  <si>
     <t>[0-9]{5}</t>
   </si>
   <si>
@@ -589,6 +580,39 @@
   </si>
   <si>
     <t>MasterFileValidationStatusColumnName</t>
+  </si>
+  <si>
+    <t>SummaryReportMasterFilePath</t>
+  </si>
+  <si>
+    <t>SummaryReportMasterFileSheetName</t>
+  </si>
+  <si>
+    <t>C:\Users\BRADSOL\Documents\UiPath\BELtd_HDFC_UTR\Data\Output\SummaryReportMasterFile.xlsx</t>
+  </si>
+  <si>
+    <t>[From]='Enetadvicemailing@hdfcbank.net' AND [ReceivedTime] &gt;= 'System.DateTime.Now.AddDays(-45)'</t>
+  </si>
+  <si>
+    <t>Validation Success</t>
+  </si>
+  <si>
+    <t>ValidationSearchKeyword</t>
+  </si>
+  <si>
+    <t>VendorsBankFileMailFilter</t>
+  </si>
+  <si>
+    <t>@SQL= urn:schemas:httpmail:subject LIKE '%Vendor bank accounts%'</t>
+  </si>
+  <si>
+    <t>VendorsBankFileSavingPath</t>
+  </si>
+  <si>
+    <t>Data\Input\</t>
+  </si>
+  <si>
+    <t>Biological E ltd</t>
   </si>
 </sst>
 </file>
@@ -983,10 +1007,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1013"/>
+  <dimension ref="A1:Z1022"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1108,188 +1132,237 @@
         <v>158</v>
       </c>
       <c r="B14" s="9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1">
+      <c r="B15" s="9"/>
+    </row>
+    <row r="16" spans="1:26" ht="15" customHeight="1">
+      <c r="A16" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B16" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A17" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15" customHeight="1">
+      <c r="A18" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B18" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15" customHeight="1">
+      <c r="A19" s="4"/>
+    </row>
+    <row r="20" spans="1:3" ht="15" customHeight="1">
+      <c r="A20" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A23" t="s">
+        <v>180</v>
+      </c>
+      <c r="B23" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="25" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A25" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="4"/>
+    </row>
+    <row r="26" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="4"/>
+    </row>
+    <row r="27" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A27" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A28" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" ht="15" customHeight="1">
-      <c r="A15" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="B15" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A16" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15" customHeight="1">
-      <c r="A17" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="B17" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="19" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A19" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C19" s="4"/>
-    </row>
-    <row r="20" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="4"/>
-    </row>
-    <row r="21" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A21" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="C28" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A22" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C22" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A23" s="4" t="s">
+    <row r="29" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A29" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B29" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A25" t="s">
-        <v>139</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A26" t="s">
-        <v>140</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="14.25" customHeight="1">
-      <c r="B27" s="4"/>
-    </row>
-    <row r="28" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="29" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A29" t="s">
-        <v>54</v>
-      </c>
-      <c r="B29" t="s">
-        <v>53</v>
-      </c>
-    </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A30" t="s">
-        <v>59</v>
-      </c>
-      <c r="B30" t="s">
-        <v>42</v>
-      </c>
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A31" t="s">
-        <v>60</v>
-      </c>
-      <c r="B31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A31" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15" customHeight="1">
       <c r="A32" t="s">
-        <v>61</v>
+        <v>173</v>
       </c>
       <c r="B32" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A33" t="s">
-        <v>62</v>
-      </c>
-      <c r="B33" t="s">
-        <v>58</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="14.25" customHeight="1">
       <c r="A34" t="s">
-        <v>171</v>
-      </c>
-      <c r="B34" t="s">
-        <v>169</v>
+        <v>139</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="14.25" customHeight="1">
       <c r="A35" t="s">
-        <v>172</v>
-      </c>
-      <c r="B35" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="37" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A37" t="s">
+        <v>140</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="14.25" customHeight="1">
+      <c r="B36" s="4"/>
+    </row>
+    <row r="37" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="38" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A39" t="s">
+        <v>59</v>
+      </c>
+      <c r="B39" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A40" t="s">
+        <v>60</v>
+      </c>
+      <c r="B40" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A41" t="s">
+        <v>61</v>
+      </c>
+      <c r="B41" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A42" t="s">
+        <v>62</v>
+      </c>
+      <c r="B42" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A43" t="s">
+        <v>168</v>
+      </c>
+      <c r="B43" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A44" t="s">
+        <v>169</v>
+      </c>
+      <c r="B44" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="46" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A46" t="s">
         <v>151</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B46" t="s">
         <v>150</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C46" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
-      <c r="B38" s="4"/>
-    </row>
-    <row r="39" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="40" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="41" spans="1:3"/>
-    <row r="42" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="43" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="44" spans="1:3"/>
-    <row r="45" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="46" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="47" spans="1:3"/>
-    <row r="48" spans="1:3"/>
+    <row r="47" spans="1:3">
+      <c r="B47" s="4"/>
+    </row>
+    <row r="48" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="49" ht="14.25" customHeight="1"/>
-    <row r="50" ht="14.25" customHeight="1"/>
+    <row r="50"/>
     <row r="51" ht="14.25" customHeight="1"/>
     <row r="52" ht="14.25" customHeight="1"/>
-    <row r="53" ht="14.25" customHeight="1"/>
+    <row r="53"/>
     <row r="54" ht="14.25" customHeight="1"/>
     <row r="55" ht="14.25" customHeight="1"/>
-    <row r="56" ht="14.25" customHeight="1"/>
-    <row r="57" ht="14.25" customHeight="1"/>
+    <row r="56"/>
+    <row r="57"/>
     <row r="58" ht="14.25" customHeight="1"/>
     <row r="59" ht="14.25" customHeight="1"/>
     <row r="60" ht="14.25" customHeight="1"/>
@@ -2246,10 +2319,19 @@
     <row r="1011" ht="14.25" customHeight="1"/>
     <row r="1012" ht="14.25" customHeight="1"/>
     <row r="1013" ht="14.25" customHeight="1"/>
+    <row r="1014" ht="14.25" customHeight="1"/>
+    <row r="1015" ht="14.25" customHeight="1"/>
+    <row r="1016" ht="14.25" customHeight="1"/>
+    <row r="1017" ht="14.25" customHeight="1"/>
+    <row r="1018" ht="14.25" customHeight="1"/>
+    <row r="1019" ht="14.25" customHeight="1"/>
+    <row r="1020" ht="14.25" customHeight="1"/>
+    <row r="1021" ht="14.25" customHeight="1"/>
+    <row r="1022" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <hyperlinks>
-    <hyperlink ref="B16" r:id="rId1" xr:uid="{BE3800E5-4AA0-48DE-8F2D-931BEB786182}"/>
+    <hyperlink ref="B17" r:id="rId1" xr:uid="{BE3800E5-4AA0-48DE-8F2D-931BEB786182}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -2258,10 +2340,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z1023"/>
+  <dimension ref="A1:Z1019"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A87" sqref="A87"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2475,361 +2557,352 @@
         <v>91</v>
       </c>
       <c r="B23" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14.25" customHeight="1">
       <c r="A24" s="4"/>
     </row>
-    <row r="25" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A25" s="4"/>
-    </row>
-    <row r="26" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="25" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="26" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A26" t="s">
+        <v>92</v>
+      </c>
+      <c r="B26" s="7">
+        <v>3</v>
+      </c>
+    </row>
     <row r="27" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A27" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" t="s">
-        <v>156</v>
-      </c>
+      <c r="B27" s="7"/>
     </row>
     <row r="28" spans="1:3" ht="14.25" customHeight="1">
       <c r="A28" t="s">
-        <v>56</v>
-      </c>
-      <c r="B28" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="14.25" customHeight="1"/>
+        <v>161</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="B29" s="4"/>
+      <c r="C29" s="3"/>
+    </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1">
       <c r="A30" t="s">
-        <v>92</v>
-      </c>
-      <c r="B30" s="7">
-        <v>3</v>
+        <v>76</v>
+      </c>
+      <c r="B30" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1">
-      <c r="B31" s="7"/>
+      <c r="A31" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A32" t="s">
-        <v>161</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="B33" s="4"/>
-      <c r="C33" s="3"/>
+      <c r="B32" s="5"/>
+    </row>
+    <row r="33" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A33" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="34" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A34" t="s">
-        <v>76</v>
-      </c>
-      <c r="B34" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A35" t="s">
-        <v>79</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>78</v>
-      </c>
+      <c r="A34" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="B35" s="4"/>
+      <c r="C35" s="3"/>
     </row>
     <row r="36" spans="1:3" ht="14.25" customHeight="1">
-      <c r="B36" s="5"/>
+      <c r="A36" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="37" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A37" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A38" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="B39" s="4"/>
-      <c r="C39" s="3"/>
+      <c r="A37" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="39" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A39" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="40" spans="1:3" ht="14.25" customHeight="1">
       <c r="A40" t="s">
-        <v>63</v>
-      </c>
-      <c r="B40" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A41" t="s">
-        <v>64</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="14.25" customHeight="1"/>
+        <v>66</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="43" spans="1:3" ht="14.25" customHeight="1">
       <c r="A43" t="s">
-        <v>65</v>
-      </c>
-      <c r="B43" t="s">
-        <v>67</v>
+        <v>70</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="14.25" customHeight="1">
       <c r="A44" t="s">
-        <v>66</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="14.25" customHeight="1"/>
+        <v>69</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A46" t="s">
+        <v>72</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
     <row r="47" spans="1:3" ht="14.25" customHeight="1">
       <c r="A47" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A48" t="s">
-        <v>69</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="49" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A49" t="s">
+        <v>74</v>
+      </c>
+      <c r="B49" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="14.25" customHeight="1">
       <c r="A50" t="s">
-        <v>72</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>119</v>
+        <v>75</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A51" t="s">
-        <v>71</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="14.25" customHeight="1"/>
+      <c r="B51" s="2"/>
+    </row>
+    <row r="52" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A52" t="s">
+        <v>105</v>
+      </c>
+      <c r="B52" t="s">
+        <v>104</v>
+      </c>
+    </row>
     <row r="53" spans="1:2" ht="14.25" customHeight="1">
       <c r="A53" t="s">
-        <v>74</v>
-      </c>
-      <c r="B53" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A54" t="s">
-        <v>75</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
+        <v>106</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="55" spans="1:2" ht="14.25" customHeight="1">
-      <c r="B55" s="2"/>
+      <c r="A55" t="s">
+        <v>107</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="56" spans="1:2" ht="14.25" customHeight="1">
       <c r="A56" t="s">
-        <v>105</v>
-      </c>
-      <c r="B56" t="s">
+        <v>108</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="58" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A58" t="s">
+        <v>109</v>
+      </c>
+      <c r="B58" s="8" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A57" t="s">
-        <v>106</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="59" spans="1:2" ht="14.25" customHeight="1">
       <c r="A59" t="s">
-        <v>107</v>
-      </c>
-      <c r="B59" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="61" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A61" t="s">
+        <v>111</v>
+      </c>
+      <c r="B61" s="8" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A60" t="s">
-        <v>108</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="62" spans="1:2" ht="14.25" customHeight="1">
       <c r="A62" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B62" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="64" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A64" t="s">
+        <v>113</v>
+      </c>
+      <c r="B64" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A63" t="s">
-        <v>110</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="65" spans="1:2" ht="14.25" customHeight="1">
       <c r="A65" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B65" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="67" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A67" t="s">
+        <v>115</v>
+      </c>
+      <c r="B67" s="8" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A66" t="s">
-        <v>112</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="68" spans="1:2" ht="14.25" customHeight="1">
       <c r="A68" t="s">
-        <v>113</v>
-      </c>
-      <c r="B68" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A69" t="s">
-        <v>114</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="14.25" customHeight="1"/>
+        <v>116</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="70" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A70" t="s">
+        <v>117</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
     <row r="71" spans="1:2" ht="14.25" customHeight="1">
       <c r="A71" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A72" t="s">
-        <v>116</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="14.25" customHeight="1"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="73" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A73" t="s">
+        <v>122</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
     <row r="74" spans="1:2" ht="14.25" customHeight="1">
       <c r="A74" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A75" t="s">
-        <v>128</v>
-      </c>
-      <c r="B75" s="8" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="14.25" customHeight="1"/>
+      <c r="B75" s="8"/>
+    </row>
+    <row r="76" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A76" t="s">
+        <v>146</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>148</v>
+      </c>
+    </row>
     <row r="77" spans="1:2" ht="14.25" customHeight="1">
       <c r="A77" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A78" t="s">
-        <v>124</v>
-      </c>
-      <c r="B78" s="8" t="s">
-        <v>138</v>
-      </c>
-    </row>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="79" spans="1:2" ht="14.25" customHeight="1">
-      <c r="B79" s="8"/>
+      <c r="A79" t="s">
+        <v>95</v>
+      </c>
+      <c r="B79" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="80" spans="1:2" ht="14.25" customHeight="1">
       <c r="A80" t="s">
-        <v>146</v>
-      </c>
-      <c r="B80" s="8" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A81" t="s">
-        <v>147</v>
-      </c>
-      <c r="B81" s="8" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="83" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A83" t="s">
-        <v>95</v>
-      </c>
-      <c r="B83" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A84" t="s">
         <v>97</v>
       </c>
-      <c r="B84" s="7">
+      <c r="B80" s="7">
         <v>587</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="86" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A86" t="s">
-        <v>174</v>
-      </c>
-      <c r="B86" t="s">
-        <v>173</v>
-      </c>
-    </row>
+    <row r="81" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="82" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A82" t="s">
+        <v>171</v>
+      </c>
+      <c r="B82" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="84" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="85" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A85" t="s">
+        <v>177</v>
+      </c>
+      <c r="B85" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="87" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="88" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="89" spans="1:2" ht="14.25" customHeight="1"/>
@@ -3763,16 +3836,12 @@
     <row r="1017" ht="14.25" customHeight="1"/>
     <row r="1018" ht="14.25" customHeight="1"/>
     <row r="1019" ht="14.25" customHeight="1"/>
-    <row r="1020" ht="14.25" customHeight="1"/>
-    <row r="1021" ht="14.25" customHeight="1"/>
-    <row r="1022" ht="14.25" customHeight="1"/>
-    <row r="1023" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <hyperlinks>
-    <hyperlink ref="B37" r:id="rId1" xr:uid="{F19909F1-85DB-4E23-B380-9D1AF9BD4AB0}"/>
-    <hyperlink ref="B35" r:id="rId2" xr:uid="{E8EB690E-788E-469D-948B-38D2F80252DF}"/>
-    <hyperlink ref="B38" r:id="rId3" xr:uid="{D578C2D8-D83E-4A95-AC4B-85AD1BF7983A}"/>
+    <hyperlink ref="B33" r:id="rId1" xr:uid="{F19909F1-85DB-4E23-B380-9D1AF9BD4AB0}"/>
+    <hyperlink ref="B31" r:id="rId2" xr:uid="{E8EB690E-788E-469D-948B-38D2F80252DF}"/>
+    <hyperlink ref="B34" r:id="rId3" xr:uid="{D578C2D8-D83E-4A95-AC4B-85AD1BF7983A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BELtd_HDFC_UTR/Data/Config.xlsx
+++ b/BELtd_HDFC_UTR/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BRADSOL\Documents\UiPath\BELtd_HDFC_UTR\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A75B1E7-D738-4E9C-AA5E-82C658B84B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1006C73D-E522-45EB-8455-145DEFAF6E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="185">
   <si>
     <t>Name</t>
   </si>
@@ -237,12 +237,6 @@
   </si>
   <si>
     <t>AttachmentNotFound_MailSubject</t>
-  </si>
-  <si>
-    <t>NoUnreadMailsFound_MailBody</t>
-  </si>
-  <si>
-    <t>NoUnreadMailsFound_MailSubject</t>
   </si>
   <si>
     <t>MM-dd-yyyy</t>
@@ -386,9 +380,6 @@
     <t>HDFC UTR Process - Vendor Payment file not found for current Date</t>
   </si>
   <si>
-    <t>Unread Emails not found for HDFC UTR Process</t>
-  </si>
-  <si>
     <t>Attachments not found for HDFC UTR Process</t>
   </si>
   <si>
@@ -419,18 +410,6 @@
     <t>VendorPaymentFileNotFound_MailBody</t>
   </si>
   <si>
-    <t>&lt;p&gt;Hello Team, &lt;/p&gt;
-&lt;p&gt;This is to notify you that our BOT HDFC UTR Process couldn’t find any unread emails for the process of "HDFC UTR Automation ”.&lt;/p&gt;
-&lt;p&gt;Thanks &amp; Regards,&lt;/p&gt;
-&lt;p&gt;BE Ltd.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Hello Team, &lt;/p&gt;
-&lt;p&gt;This is to notify you that our BOT HDFC UTR Process couldn’t find Current Date Vendor Payments file for the process of " HDFC UTR Automation”.&lt;/p&gt;
-&lt;p&gt;Thanks &amp; Regards,&lt;/p&gt;
-&lt;p&gt;BE Ltd.&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>&lt;p&gt;Hello Team,&lt;/p&gt;
 &lt;p&gt;This is to notify you that our BOT HDFC UTR Process couldn’t Move Files. Hence stopping the BOT.&lt;/p&gt;
 &lt;p&gt;Regards,&lt;/p&gt;
@@ -613,6 +592,33 @@
   </si>
   <si>
     <t>Biological E ltd</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Hello Team, &lt;/p&gt;
+&lt;p&gt;This is to notify you that our BOT HDFC UTR Process couldn’t find Current Date Vendor Payments file for the process of " HDFC UTR Automation”. Hence stopping the bot&lt;/p&gt;
+&lt;p&gt;Thanks &amp; Regards,&lt;/p&gt;
+&lt;p&gt;BE Ltd.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>NoHDFCUTRMailsFoundToday_MailSubject</t>
+  </si>
+  <si>
+    <t>NoHDFCUTRMailsFoundToday_MailBody</t>
+  </si>
+  <si>
+    <t>Emails not found for HDFC UTR Process with today's date</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Hello Team, &lt;/p&gt;
+&lt;p&gt;This is to notify you that our BOT HDFC UTR Process couldn’t find emails with today's received date for the process of "HDFC UTR Automation ”.&lt;/p&gt;
+&lt;p&gt;Thanks &amp; Regards,&lt;/p&gt;
+&lt;p&gt;BE Ltd.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Verification Status</t>
+  </si>
+  <si>
+    <t>SummaryFileValidationStatusColumnName</t>
   </si>
 </sst>
 </file>
@@ -1057,29 +1063,29 @@
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
       <c r="A5" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
@@ -1087,52 +1093,52 @@
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
@@ -1140,26 +1146,26 @@
     </row>
     <row r="16" spans="1:26" ht="15" customHeight="1">
       <c r="A16" s="4" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B16" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14.25" customHeight="1">
       <c r="A17" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1">
       <c r="A18" s="4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B18" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" customHeight="1">
@@ -1167,10 +1173,10 @@
     </row>
     <row r="20" spans="1:3" ht="15" customHeight="1">
       <c r="A20" s="4" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14.25" customHeight="1">
@@ -1178,7 +1184,7 @@
         <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14.25" customHeight="1">
@@ -1191,19 +1197,19 @@
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1">
       <c r="A23" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B23" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="25" spans="1:3" ht="14.25" customHeight="1">
       <c r="A25" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C25" s="4"/>
     </row>
@@ -1214,32 +1220,32 @@
     </row>
     <row r="27" spans="1:3" ht="14.25" customHeight="1">
       <c r="A27" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C27" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="14.25" customHeight="1">
       <c r="A28" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C28" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1">
       <c r="A29" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1">
@@ -1248,34 +1254,34 @@
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1">
       <c r="A31" s="4" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15" customHeight="1">
       <c r="A32" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B32" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="14.25" customHeight="1">
       <c r="A34" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="14.25" customHeight="1">
       <c r="A35" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="14.25" customHeight="1">
@@ -1324,30 +1330,30 @@
     </row>
     <row r="43" spans="1:3" ht="14.25" customHeight="1">
       <c r="A43" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B43" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="14.25" customHeight="1">
       <c r="A44" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B44" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="46" spans="1:3" ht="14.25" customHeight="1">
       <c r="A46" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B46" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -2340,10 +2346,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z1019"/>
+  <dimension ref="A1:Z1018"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2530,7 +2536,7 @@
         <v>20</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>21</v>
@@ -2554,10 +2560,10 @@
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1">
       <c r="A23" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B23" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14.25" customHeight="1">
@@ -2566,7 +2572,7 @@
     <row r="25" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="26" spans="1:3" ht="14.25" customHeight="1">
       <c r="A26" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B26" s="7">
         <v>3</v>
@@ -2577,10 +2583,10 @@
     </row>
     <row r="28" spans="1:3" ht="14.25" customHeight="1">
       <c r="A28" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2589,18 +2595,18 @@
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1">
       <c r="A30" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B30" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1">
       <c r="A31" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1">
@@ -2608,7 +2614,7 @@
     </row>
     <row r="33" spans="1:3" ht="14.25" customHeight="1">
       <c r="A33" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>39</v>
@@ -2616,7 +2622,7 @@
     </row>
     <row r="34" spans="1:3" ht="14.25" customHeight="1">
       <c r="A34" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>39</v>
@@ -2639,7 +2645,7 @@
         <v>64</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="14.25" customHeight="1"/>
@@ -2656,7 +2662,7 @@
         <v>66</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="14.25" customHeight="1"/>
@@ -2665,7 +2671,7 @@
         <v>70</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="14.25" customHeight="1">
@@ -2673,40 +2679,40 @@
         <v>69</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="14.25" customHeight="1">
       <c r="A46" t="s">
-        <v>72</v>
+        <v>179</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>119</v>
+        <v>181</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="14.25" customHeight="1">
       <c r="A47" t="s">
-        <v>71</v>
+        <v>180</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>129</v>
+        <v>182</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="49" spans="1:2" ht="14.25" customHeight="1">
       <c r="A49" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B49" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="14.25" customHeight="1">
       <c r="A50" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="14.25" customHeight="1">
@@ -2714,137 +2720,137 @@
     </row>
     <row r="52" spans="1:2" ht="14.25" customHeight="1">
       <c r="A52" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B52" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="14.25" customHeight="1">
       <c r="A53" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="55" spans="1:2" ht="14.25" customHeight="1">
       <c r="A55" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="14.25" customHeight="1">
       <c r="A56" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="58" spans="1:2" ht="14.25" customHeight="1">
       <c r="A58" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="14.25" customHeight="1">
       <c r="A59" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="61" spans="1:2" ht="14.25" customHeight="1">
       <c r="A61" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="14.25" customHeight="1">
       <c r="A62" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="64" spans="1:2" ht="14.25" customHeight="1">
       <c r="A64" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B64" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="14.25" customHeight="1">
       <c r="A65" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="67" spans="1:2" ht="14.25" customHeight="1">
       <c r="A67" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="14.25" customHeight="1">
       <c r="A68" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="70" spans="1:2" ht="14.25" customHeight="1">
       <c r="A70" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="14.25" customHeight="1">
       <c r="A71" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>130</v>
+        <v>178</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="73" spans="1:2" ht="14.25" customHeight="1">
       <c r="A73" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="14.25" customHeight="1">
       <c r="A74" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="14.25" customHeight="1">
@@ -2852,32 +2858,32 @@
     </row>
     <row r="76" spans="1:2" ht="14.25" customHeight="1">
       <c r="A76" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="14.25" customHeight="1">
       <c r="A77" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="79" spans="1:2" ht="14.25" customHeight="1">
       <c r="A79" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B79" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="14.25" customHeight="1">
       <c r="A80" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B80" s="7">
         <v>587</v>
@@ -2886,23 +2892,30 @@
     <row r="81" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="82" spans="1:2" ht="14.25" customHeight="1">
       <c r="A82" t="s">
+        <v>166</v>
+      </c>
+      <c r="B82" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="84" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A84" t="s">
+        <v>172</v>
+      </c>
+      <c r="B84" t="s">
         <v>171</v>
       </c>
-      <c r="B82" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="84" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="85" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A85" t="s">
-        <v>177</v>
-      </c>
-      <c r="B85" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="14.25" customHeight="1"/>
+    </row>
+    <row r="85" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="86" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A86" t="s">
+        <v>184</v>
+      </c>
+      <c r="B86" t="s">
+        <v>183</v>
+      </c>
+    </row>
     <row r="87" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="88" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="89" spans="1:2" ht="14.25" customHeight="1"/>
@@ -3835,7 +3848,6 @@
     <row r="1016" ht="14.25" customHeight="1"/>
     <row r="1017" ht="14.25" customHeight="1"/>
     <row r="1018" ht="14.25" customHeight="1"/>
-    <row r="1019" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <hyperlinks>

--- a/BELtd_HDFC_UTR/Data/Config.xlsx
+++ b/BELtd_HDFC_UTR/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BRADSOL\Documents\UiPath\BELtd_HDFC_UTR\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1006C73D-E522-45EB-8455-145DEFAF6E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB0E1561-3321-4981-BA27-3B09F60D82EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="191">
   <si>
     <t>Name</t>
   </si>
@@ -619,6 +619,27 @@
   </si>
   <si>
     <t>SummaryFileValidationStatusColumnName</t>
+  </si>
+  <si>
+    <t>PasswordNotFoundMailsSavingPath</t>
+  </si>
+  <si>
+    <t>C:\Users\BRADSOL\Documents\UiPath\BELtd_HDFC_UTR\Data\Temp\PasswordNotFoundMails</t>
+  </si>
+  <si>
+    <t>PasswordNotFoundMails_MailSubject</t>
+  </si>
+  <si>
+    <t>PasswordNotFoundMails_MailBody</t>
+  </si>
+  <si>
+    <t>HDFC UTR Process - Password not found for attached mails</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Hello Team, &lt;/p&gt;
+&lt;p&gt;This is to notify you that our BOT couldn’t find Passwords for attached mails for the process of " HDFC UTR Automation”. Please find attached emails.&lt;/p&gt;
+&lt;p&gt;Thanks &amp; Regards,&lt;/p&gt;
+&lt;p&gt;BE Ltd.&lt;/p&gt;</t>
   </si>
 </sst>
 </file>
@@ -1015,8 +1036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1022"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1285,7 +1306,12 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="14.25" customHeight="1">
-      <c r="B36" s="4"/>
+      <c r="A36" t="s">
+        <v>185</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="37" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="38" spans="1:3" ht="14.25" customHeight="1">
@@ -2346,10 +2372,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z1018"/>
+  <dimension ref="A1:Z1021"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2872,53 +2898,69 @@
         <v>144</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="78" spans="1:2" ht="14.25" customHeight="1">
+      <c r="B78" s="8"/>
+    </row>
     <row r="79" spans="1:2" ht="14.25" customHeight="1">
       <c r="A79" t="s">
-        <v>93</v>
-      </c>
-      <c r="B79" t="s">
-        <v>94</v>
+        <v>187</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="14.25" customHeight="1">
       <c r="A80" t="s">
-        <v>95</v>
-      </c>
-      <c r="B80" s="7">
-        <v>587</v>
+        <v>188</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="82" spans="1:2" ht="14.25" customHeight="1">
       <c r="A82" t="s">
+        <v>93</v>
+      </c>
+      <c r="B82" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A83" t="s">
+        <v>95</v>
+      </c>
+      <c r="B83" s="7">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="85" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A85" t="s">
         <v>166</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B85" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="84" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A84" t="s">
+    <row r="86" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="87" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A87" t="s">
         <v>172</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B87" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="86" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A86" t="s">
+    <row r="88" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="89" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A89" t="s">
         <v>184</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B89" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="88" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="89" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="90" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="91" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="92" spans="1:2" ht="14.25" customHeight="1"/>
@@ -3848,6 +3890,9 @@
     <row r="1016" ht="14.25" customHeight="1"/>
     <row r="1017" ht="14.25" customHeight="1"/>
     <row r="1018" ht="14.25" customHeight="1"/>
+    <row r="1019" ht="14.25" customHeight="1"/>
+    <row r="1020" ht="14.25" customHeight="1"/>
+    <row r="1021" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <hyperlinks>

--- a/BELtd_HDFC_UTR/Data/Config.xlsx
+++ b/BELtd_HDFC_UTR/Data/Config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BRADSOL\Documents\UiPath\BELtd_HDFC_UTR\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB0E1561-3321-4981-BA27-3B09F60D82EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9D91DE-7749-41BA-8E41-039B33D77A0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="197">
   <si>
     <t>Name</t>
   </si>
@@ -185,9 +185,6 @@
     <t>VendorBankAccountsPath</t>
   </si>
   <si>
-    <t>[x]{2,13}[0-9]{4}</t>
-  </si>
-  <si>
     <t>HDFCUTR_MailBody_RegularExpression</t>
   </si>
   <si>
@@ -219,15 +216,6 @@
   </si>
   <si>
     <t>Bot_Starting_Mail_Body</t>
-  </si>
-  <si>
-    <t>Bot_Ending_Mail_Subject</t>
-  </si>
-  <si>
-    <t>Bot_Ending_Mail_Body</t>
-  </si>
-  <si>
-    <t>HDFC UTR Automation - Completed</t>
   </si>
   <si>
     <t>HDFC UTR Automation - Started</t>
@@ -513,9 +501,6 @@
     <t>C:\Users\BRADSOL\Desktop\Vendor Payaments MasterFile.xlsx</t>
   </si>
   <si>
-    <t>Data\Input\Vendor bank accounts.xlsx</t>
-  </si>
-  <si>
     <t>Date will be appended to file name in the code like SummaryReport-08-10-2022.xlsx</t>
   </si>
   <si>
@@ -543,9 +528,6 @@
     <t>@SQL= urn:schemas:httpmail:subject LIKE '%Vendor_Payments%'</t>
   </si>
   <si>
-    <t>C:\Users\BRADSOL\Documents\UiPath\BELtd_HDFC_UTR\Data\Output\SummaryReport-</t>
-  </si>
-  <si>
     <t>[0-9]{5}</t>
   </si>
   <si>
@@ -561,21 +543,6 @@
     <t>MasterFileValidationStatusColumnName</t>
   </si>
   <si>
-    <t>SummaryReportMasterFilePath</t>
-  </si>
-  <si>
-    <t>SummaryReportMasterFileSheetName</t>
-  </si>
-  <si>
-    <t>C:\Users\BRADSOL\Documents\UiPath\BELtd_HDFC_UTR\Data\Output\SummaryReportMasterFile.xlsx</t>
-  </si>
-  <si>
-    <t>[From]='Enetadvicemailing@hdfcbank.net' AND [ReceivedTime] &gt;= 'System.DateTime.Now.AddDays(-45)'</t>
-  </si>
-  <si>
-    <t>Validation Success</t>
-  </si>
-  <si>
     <t>ValidationSearchKeyword</t>
   </si>
   <si>
@@ -586,9 +553,6 @@
   </si>
   <si>
     <t>VendorsBankFileSavingPath</t>
-  </si>
-  <si>
-    <t>Data\Input\</t>
   </si>
   <si>
     <t>Biological E ltd</t>
@@ -606,21 +570,12 @@
     <t>NoHDFCUTRMailsFoundToday_MailBody</t>
   </si>
   <si>
-    <t>Emails not found for HDFC UTR Process with today's date</t>
-  </si>
-  <si>
     <t>&lt;p&gt;Hello Team, &lt;/p&gt;
 &lt;p&gt;This is to notify you that our BOT HDFC UTR Process couldn’t find emails with today's received date for the process of "HDFC UTR Automation ”.&lt;/p&gt;
 &lt;p&gt;Thanks &amp; Regards,&lt;/p&gt;
 &lt;p&gt;BE Ltd.&lt;/p&gt;</t>
   </si>
   <si>
-    <t>Verification Status</t>
-  </si>
-  <si>
-    <t>SummaryFileValidationStatusColumnName</t>
-  </si>
-  <si>
     <t>PasswordNotFoundMailsSavingPath</t>
   </si>
   <si>
@@ -640,6 +595,75 @@
 &lt;p&gt;This is to notify you that our BOT couldn’t find Passwords for attached mails for the process of " HDFC UTR Automation”. Please find attached emails.&lt;/p&gt;
 &lt;p&gt;Thanks &amp; Regards,&lt;/p&gt;
 &lt;p&gt;BE Ltd.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>C:\Users\BRADSOL\Documents\UiPath\BELtd_HDFC_UTR\Data\Output\SummaryReport-</t>
+  </si>
+  <si>
+    <t>[x]{2,13}[0-9]{4}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HDFC UTR Automation - Execution Completed </t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Hello Team, &lt;/p&gt;
+&lt;p&gt;This is to notify you that our BOT completed the process for HDFC UTR Automation with errors. &lt;/p&gt;
+&lt;p&gt;Thanks &amp; Regards &lt;/p&gt;
+&lt;p&gt;BE Ltd.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Bot_Ending_Mail_Subject_Success</t>
+  </si>
+  <si>
+    <t>Bot_Ending_Mail_Body_Success</t>
+  </si>
+  <si>
+    <t>Bot_Ending_Mail_Subject_Failure</t>
+  </si>
+  <si>
+    <t>Bot_Ending_Mail_Body_Failure</t>
+  </si>
+  <si>
+    <t>C:\Users\BRADSOL\Documents\UiPath\BELtd_HDFC_UTR\Data\Input\Data\Input\</t>
+  </si>
+  <si>
+    <t>C:\Users\BRADSOL\Documents\UiPath\BELtd_HDFC_UTR\Data\Input\Vendor bank accounts.xlsx</t>
+  </si>
+  <si>
+    <t>MasterFilePDFFileNameColumnName</t>
+  </si>
+  <si>
+    <t>PDF File Name</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>DaysToFilterMails</t>
+  </si>
+  <si>
+    <t>NoHDFCUTRMailsFoundForTheDateRange_MailBody</t>
+  </si>
+  <si>
+    <t>NoHDFCUTRMailsFoundForTheDateRange_MailSubject</t>
+  </si>
+  <si>
+    <t>HDFC UTR Automation -Emails not found with today's date</t>
+  </si>
+  <si>
+    <t>HDFC UTR Automation -Emails not found for given date range</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Hello Team, &lt;/p&gt;
+&lt;p&gt;This is to notify you that our BOT HDFC UTR Process couldn’t find emails for the given date range for the process of "HDFC UTR Automation ”.&lt;/p&gt;
+&lt;p&gt;Thanks &amp; Regards,&lt;/p&gt;
+&lt;p&gt;BE Ltd.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>C:\Users\BRADSOL\Documents\UiPath\BELtd_HDFC_UTR\Data\Temp\ValidationFailedAttachments</t>
+  </si>
+  <si>
+    <t>ValidationFailedAttachmentsSavingPath</t>
   </si>
 </sst>
 </file>
@@ -700,7 +724,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -719,6 +743,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1036,14 +1064,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1022"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="49" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="127.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="143.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="104" bestFit="1" customWidth="1"/>
     <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
@@ -1084,29 +1112,29 @@
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
       <c r="A5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
@@ -1114,52 +1142,52 @@
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B8" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B10" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B11" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" t="s">
-        <v>98</v>
-      </c>
-      <c r="B12" t="s">
-        <v>99</v>
+        <v>94</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
@@ -1167,164 +1195,162 @@
     </row>
     <row r="16" spans="1:26" ht="15" customHeight="1">
       <c r="A16" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="B16" t="s">
-        <v>170</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="B16" s="9"/>
     </row>
     <row r="17" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A17" s="4" t="s">
-        <v>91</v>
+      <c r="A17" s="11" t="s">
+        <v>87</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1">
-      <c r="A18" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="B18" t="s">
-        <v>140</v>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A18" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="B18" s="10">
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" customHeight="1">
-      <c r="A19" s="4"/>
+      <c r="A19" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B19" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="20" spans="1:3" ht="15" customHeight="1">
-      <c r="A20" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A21" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21" t="s">
-        <v>151</v>
+      <c r="A20" s="4"/>
+    </row>
+    <row r="21" spans="1:3" ht="15" customHeight="1">
+      <c r="A21" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14.25" customHeight="1">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1">
       <c r="A23" t="s">
-        <v>175</v>
+        <v>55</v>
       </c>
       <c r="B23" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="25" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A25" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C25" s="4"/>
-    </row>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A24" t="s">
+        <v>164</v>
+      </c>
+      <c r="B24" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="26" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
+      <c r="A26" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="C26" s="4"/>
     </row>
     <row r="27" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A27" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C27" t="s">
-        <v>152</v>
-      </c>
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="4"/>
     </row>
     <row r="28" spans="1:3" ht="14.25" customHeight="1">
       <c r="A28" s="4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>161</v>
+        <v>79</v>
       </c>
       <c r="C28" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1">
       <c r="A29" s="4" t="s">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>99</v>
+        <v>176</v>
+      </c>
+      <c r="C29" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
+      <c r="A30" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A31" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="15" customHeight="1">
-      <c r="A32" t="s">
-        <v>168</v>
-      </c>
-      <c r="B32" t="s">
-        <v>99</v>
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+    </row>
+    <row r="33" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A33" t="s">
+        <v>130</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="14.25" customHeight="1">
       <c r="A34" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="14.25" customHeight="1">
       <c r="A35" t="s">
-        <v>135</v>
+        <v>170</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>137</v>
+        <v>171</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="14.25" customHeight="1">
       <c r="A36" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="38" spans="1:3" ht="14.25" customHeight="1">
       <c r="A38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B38" t="s">
-        <v>53</v>
+        <v>177</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="14.25" customHeight="1">
       <c r="A39" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B39" t="s">
         <v>42</v>
@@ -1332,15 +1358,15 @@
     </row>
     <row r="40" spans="1:3" ht="14.25" customHeight="1">
       <c r="A40" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="14.25" customHeight="1">
       <c r="A41" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B41" t="s">
         <v>49</v>
@@ -1348,38 +1374,38 @@
     </row>
     <row r="42" spans="1:3" ht="14.25" customHeight="1">
       <c r="A42" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="14.25" customHeight="1">
       <c r="A43" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B43" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="14.25" customHeight="1">
       <c r="A44" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B44" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="46" spans="1:3" ht="14.25" customHeight="1">
       <c r="A46" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B46" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -2372,16 +2398,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z1021"/>
+  <dimension ref="A1:Z1024"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A80" sqref="A80"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="41" customWidth="1"/>
-    <col min="2" max="2" width="51" customWidth="1"/>
+    <col min="1" max="1" width="50.28515625" customWidth="1"/>
+    <col min="2" max="2" width="60" customWidth="1"/>
     <col min="3" max="3" width="75.42578125" customWidth="1"/>
     <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
@@ -2562,7 +2588,7 @@
         <v>20</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>21</v>
@@ -2586,10 +2612,10 @@
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1">
       <c r="A23" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B23" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14.25" customHeight="1">
@@ -2598,7 +2624,7 @@
     <row r="25" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="26" spans="1:3" ht="14.25" customHeight="1">
       <c r="A26" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B26" s="7">
         <v>3</v>
@@ -2609,10 +2635,10 @@
     </row>
     <row r="28" spans="1:3" ht="14.25" customHeight="1">
       <c r="A28" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2621,18 +2647,18 @@
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1">
       <c r="A30" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B30" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1">
       <c r="A31" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1">
@@ -2640,7 +2666,7 @@
     </row>
     <row r="33" spans="1:3" ht="14.25" customHeight="1">
       <c r="A33" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>39</v>
@@ -2648,7 +2674,7 @@
     </row>
     <row r="34" spans="1:3" ht="14.25" customHeight="1">
       <c r="A34" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>39</v>
@@ -2660,330 +2686,367 @@
     </row>
     <row r="36" spans="1:3" ht="14.25" customHeight="1">
       <c r="A36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B36" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="14.25" customHeight="1">
       <c r="A37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="39" spans="1:3" ht="14.25" customHeight="1">
       <c r="A39" t="s">
-        <v>65</v>
+        <v>180</v>
       </c>
       <c r="B39" t="s">
-        <v>67</v>
+        <v>178</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="14.25" customHeight="1">
       <c r="A40" t="s">
-        <v>66</v>
+        <v>181</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="42" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A42" t="s">
+        <v>182</v>
+      </c>
+      <c r="B42" t="s">
+        <v>178</v>
+      </c>
+    </row>
     <row r="43" spans="1:3" ht="14.25" customHeight="1">
       <c r="A43" t="s">
-        <v>70</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A44" t="s">
-        <v>69</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>127</v>
+        <v>183</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A45" t="s">
+        <v>167</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="14.25" customHeight="1">
       <c r="A46" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A47" t="s">
-        <v>180</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="14.25" customHeight="1"/>
+      <c r="B47" s="8"/>
+    </row>
+    <row r="48" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A48" t="s">
+        <v>191</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>193</v>
+      </c>
+    </row>
     <row r="49" spans="1:2" ht="14.25" customHeight="1">
       <c r="A49" t="s">
-        <v>72</v>
-      </c>
-      <c r="B49" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A50" t="s">
-        <v>73</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
+        <v>190</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="51" spans="1:2" ht="14.25" customHeight="1">
-      <c r="B51" s="2"/>
+      <c r="A51" t="s">
+        <v>99</v>
+      </c>
+      <c r="B51" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="52" spans="1:2" ht="14.25" customHeight="1">
       <c r="A52" t="s">
-        <v>103</v>
-      </c>
-      <c r="B52" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A53" t="s">
-        <v>104</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="14.25" customHeight="1"/>
+        <v>100</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="54" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A54" t="s">
+        <v>101</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
     <row r="55" spans="1:2" ht="14.25" customHeight="1">
       <c r="A55" t="s">
-        <v>105</v>
-      </c>
-      <c r="B55" s="2" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A56" t="s">
-        <v>106</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="14.25" customHeight="1"/>
+      <c r="B55" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="57" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A57" t="s">
+        <v>103</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
     <row r="58" spans="1:2" ht="14.25" customHeight="1">
       <c r="A58" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A59" t="s">
-        <v>108</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="14.25" customHeight="1"/>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="60" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A60" t="s">
+        <v>105</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
     <row r="61" spans="1:2" ht="14.25" customHeight="1">
       <c r="A61" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A62" t="s">
-        <v>110</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="14.25" customHeight="1"/>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="63" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A63" t="s">
+        <v>107</v>
+      </c>
+      <c r="B63" t="s">
+        <v>98</v>
+      </c>
+    </row>
     <row r="64" spans="1:2" ht="14.25" customHeight="1">
       <c r="A64" t="s">
-        <v>111</v>
-      </c>
-      <c r="B64" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A65" t="s">
-        <v>112</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="14.25" customHeight="1"/>
+        <v>108</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="66" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A66" t="s">
+        <v>109</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
     <row r="67" spans="1:2" ht="14.25" customHeight="1">
       <c r="A67" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A68" t="s">
-        <v>114</v>
-      </c>
-      <c r="B68" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="14.25" customHeight="1"/>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="69" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A69" t="s">
+        <v>111</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
     <row r="70" spans="1:2" ht="14.25" customHeight="1">
       <c r="A70" t="s">
+        <v>121</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="72" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A72" t="s">
         <v>115</v>
       </c>
-      <c r="B70" s="8" t="s">
+      <c r="B72" s="8" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A71" t="s">
-        <v>125</v>
-      </c>
-      <c r="B71" s="8" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="73" spans="1:2" ht="14.25" customHeight="1">
       <c r="A73" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A74" t="s">
-        <v>121</v>
-      </c>
-      <c r="B74" s="8" t="s">
-        <v>133</v>
-      </c>
+      <c r="B74" s="8"/>
     </row>
     <row r="75" spans="1:2" ht="14.25" customHeight="1">
-      <c r="B75" s="8"/>
+      <c r="A75" t="s">
+        <v>137</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="76" spans="1:2" ht="14.25" customHeight="1">
       <c r="A76" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A77" t="s">
-        <v>142</v>
-      </c>
-      <c r="B77" s="8" t="s">
-        <v>144</v>
-      </c>
+      <c r="B77" s="8"/>
     </row>
     <row r="78" spans="1:2" ht="14.25" customHeight="1">
-      <c r="B78" s="8"/>
+      <c r="A78" t="s">
+        <v>172</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="79" spans="1:2" ht="14.25" customHeight="1">
       <c r="A79" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A80" t="s">
-        <v>188</v>
-      </c>
-      <c r="B80" s="8" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" ht="14.25" customHeight="1"/>
+      <c r="B80" s="8"/>
+    </row>
+    <row r="81" spans="1:2" ht="14.25" customHeight="1">
+      <c r="B81" s="8"/>
+    </row>
     <row r="82" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A82" t="s">
-        <v>93</v>
-      </c>
-      <c r="B82" t="s">
-        <v>94</v>
-      </c>
+      <c r="B82" s="8"/>
     </row>
     <row r="83" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A83" t="s">
-        <v>95</v>
-      </c>
-      <c r="B83" s="7">
-        <v>587</v>
-      </c>
+      <c r="B83" s="8"/>
     </row>
     <row r="84" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="85" spans="1:2" ht="14.25" customHeight="1">
       <c r="A85" t="s">
-        <v>166</v>
+        <v>89</v>
       </c>
       <c r="B85" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="87" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A87" t="s">
-        <v>172</v>
-      </c>
-      <c r="B87" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" ht="14.25" customHeight="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A86" t="s">
+        <v>91</v>
+      </c>
+      <c r="B86" s="7">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="88" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A88" t="s">
+        <v>160</v>
+      </c>
+      <c r="B88" t="s">
+        <v>159</v>
+      </c>
+    </row>
     <row r="89" spans="1:2" ht="14.25" customHeight="1">
       <c r="A89" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B89" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="91" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="92" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="92" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A92" t="s">
+        <v>161</v>
+      </c>
+      <c r="B92" t="s">
+        <v>188</v>
+      </c>
+    </row>
     <row r="93" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="94" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="95" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="94" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A94" t="s">
+        <v>66</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A95" t="s">
+        <v>65</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
     <row r="96" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="97" ht="14.25" customHeight="1"/>
-    <row r="98" ht="14.25" customHeight="1"/>
-    <row r="99" ht="14.25" customHeight="1"/>
-    <row r="100" ht="14.25" customHeight="1"/>
-    <row r="101" ht="14.25" customHeight="1"/>
-    <row r="102" ht="14.25" customHeight="1"/>
-    <row r="103" ht="14.25" customHeight="1"/>
-    <row r="104" ht="14.25" customHeight="1"/>
-    <row r="105" ht="14.25" customHeight="1"/>
-    <row r="106" ht="14.25" customHeight="1"/>
-    <row r="107" ht="14.25" customHeight="1"/>
-    <row r="108" ht="14.25" customHeight="1"/>
-    <row r="109" ht="14.25" customHeight="1"/>
-    <row r="110" ht="14.25" customHeight="1"/>
-    <row r="111" ht="14.25" customHeight="1"/>
-    <row r="112" ht="14.25" customHeight="1"/>
+    <row r="97" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A97" t="s">
+        <v>68</v>
+      </c>
+      <c r="B97" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A98" t="s">
+        <v>69</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="100" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="101" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="102" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="103" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="104" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="105" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="106" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="107" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="108" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="109" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="110" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="111" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="112" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="113" ht="14.25" customHeight="1"/>
     <row r="114" ht="14.25" customHeight="1"/>
     <row r="115" ht="14.25" customHeight="1"/>
@@ -3893,6 +3956,9 @@
     <row r="1019" ht="14.25" customHeight="1"/>
     <row r="1020" ht="14.25" customHeight="1"/>
     <row r="1021" ht="14.25" customHeight="1"/>
+    <row r="1022" ht="14.25" customHeight="1"/>
+    <row r="1023" ht="14.25" customHeight="1"/>
+    <row r="1024" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <hyperlinks>

--- a/BELtd_HDFC_UTR/Data/Config.xlsx
+++ b/BELtd_HDFC_UTR/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BRADSOL\Documents\UiPath\BELtd_HDFC_UTR\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9D91DE-7749-41BA-8E41-039B33D77A0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A00087-D833-458B-BDDB-80F4D8E2D59D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="192">
   <si>
     <t>Name</t>
   </si>
@@ -180,9 +180,6 @@
   </si>
   <si>
     <t>ProcessesToKill</t>
-  </si>
-  <si>
-    <t>VendorBankAccountsPath</t>
   </si>
   <si>
     <t>HDFCUTR_MailBody_RegularExpression</t>
@@ -482,16 +479,6 @@
 &lt;p&gt;BE Ltd.&lt;/p&gt;</t>
   </si>
   <si>
-    <t>[a-zA-Z0-9]*.pdf</t>
-  </si>
-  <si>
-    <t>PDFFileNameFindingRegEx</t>
-  </si>
-  <si>
-    <t>Ex: C:\Users\Username\Documents\UiPath\BELtd_HDFC_UTR\Data\Attachments\08-02-2022\AB012345678901.pdf
-Returns-   AB012345678901.pdf</t>
-  </si>
-  <si>
     <t>ValidatedPDFsSavingPath</t>
   </si>
   <si>
@@ -624,12 +611,6 @@
     <t>Bot_Ending_Mail_Body_Failure</t>
   </si>
   <si>
-    <t>C:\Users\BRADSOL\Documents\UiPath\BELtd_HDFC_UTR\Data\Input\Data\Input\</t>
-  </si>
-  <si>
-    <t>C:\Users\BRADSOL\Documents\UiPath\BELtd_HDFC_UTR\Data\Input\Vendor bank accounts.xlsx</t>
-  </si>
-  <si>
     <t>MasterFilePDFFileNameColumnName</t>
   </si>
   <si>
@@ -664,13 +645,16 @@
   </si>
   <si>
     <t>ValidationFailedAttachmentsSavingPath</t>
+  </si>
+  <si>
+    <t>C:\Users\BRADSOL\Documents\UiPath\BELtd_HDFC_UTR\Data\Input\</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -702,6 +686,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -724,7 +715,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -747,6 +738,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1062,10 +1057,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1022"/>
+  <dimension ref="A1:Z1021"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1112,29 +1107,29 @@
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
       <c r="A5" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
@@ -1142,52 +1137,52 @@
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" t="s">
         <v>96</v>
-      </c>
-      <c r="B8" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>94</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
@@ -1195,32 +1190,32 @@
     </row>
     <row r="16" spans="1:26" ht="15" customHeight="1">
       <c r="A16" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B16" s="9"/>
     </row>
     <row r="17" spans="1:3" ht="14.25" customHeight="1">
       <c r="A17" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1">
       <c r="A18" s="11" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B18" s="10">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" customHeight="1">
       <c r="A19" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B19" t="s">
         <v>135</v>
-      </c>
-      <c r="B19" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15" customHeight="1">
@@ -1228,86 +1223,86 @@
     </row>
     <row r="21" spans="1:3" ht="15" customHeight="1">
       <c r="A21" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14.25" customHeight="1">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B22" t="s">
-        <v>185</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>160</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A24" t="s">
-        <v>164</v>
-      </c>
-      <c r="B24" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="14.25" customHeight="1"/>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="25" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A25" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="4"/>
+    </row>
     <row r="26" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="4"/>
+    </row>
+    <row r="27" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A27" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C26" s="4"/>
-    </row>
-    <row r="27" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="4"/>
+      <c r="C27" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="28" spans="1:3" ht="14.25" customHeight="1">
       <c r="A28" s="4" t="s">
         <v>81</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="C28" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1">
       <c r="A29" s="4" t="s">
-        <v>82</v>
+        <v>117</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C29" t="s">
-        <v>147</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A30" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-    </row>
-    <row r="33" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+    </row>
+    <row r="32" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A32" t="s">
+        <v>129</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="14.25" customHeight="1">
       <c r="A33" t="s">
         <v>130</v>
       </c>
@@ -1315,112 +1310,94 @@
         <v>132</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="14.25" customHeight="1">
+    <row r="34" spans="1:2" ht="14.25" customHeight="1">
       <c r="A34" t="s">
-        <v>131</v>
+        <v>166</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="14.25" customHeight="1">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="14.25" customHeight="1">
       <c r="A35" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A36" t="s">
-        <v>196</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="38" spans="1:3" ht="14.25" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="37" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A37" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="14.25" customHeight="1">
       <c r="A38" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B38" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="14.25" customHeight="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="14.25" customHeight="1">
       <c r="A39" t="s">
         <v>58</v>
       </c>
       <c r="B39" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="14.25" customHeight="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="14.25" customHeight="1">
       <c r="A40" t="s">
         <v>59</v>
       </c>
       <c r="B40" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="14.25" customHeight="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="14.25" customHeight="1">
       <c r="A41" t="s">
         <v>60</v>
       </c>
       <c r="B41" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="14.25" customHeight="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="14.25" customHeight="1">
       <c r="A42" t="s">
-        <v>61</v>
+        <v>153</v>
       </c>
       <c r="B42" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="14.25" customHeight="1">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="14.25" customHeight="1">
       <c r="A43" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B43" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A44" t="s">
-        <v>158</v>
-      </c>
-      <c r="B44" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="46" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A46" t="s">
-        <v>142</v>
-      </c>
-      <c r="B46" t="s">
-        <v>141</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="B47" s="4"/>
-    </row>
-    <row r="48" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="49" ht="14.25" customHeight="1"/>
-    <row r="50"/>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="46" spans="1:2">
+      <c r="B46" s="4"/>
+    </row>
+    <row r="47" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="48" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="49"/>
+    <row r="50" ht="14.25" customHeight="1"/>
     <row r="51" ht="14.25" customHeight="1"/>
-    <row r="52" ht="14.25" customHeight="1"/>
-    <row r="53"/>
+    <row r="52"/>
+    <row r="53" ht="14.25" customHeight="1"/>
     <row r="54" ht="14.25" customHeight="1"/>
-    <row r="55" ht="14.25" customHeight="1"/>
+    <row r="55"/>
     <row r="56"/>
-    <row r="57"/>
+    <row r="57" ht="14.25" customHeight="1"/>
     <row r="58" ht="14.25" customHeight="1"/>
     <row r="59" ht="14.25" customHeight="1"/>
     <row r="60" ht="14.25" customHeight="1"/>
@@ -2385,7 +2362,6 @@
     <row r="1019" ht="14.25" customHeight="1"/>
     <row r="1020" ht="14.25" customHeight="1"/>
     <row r="1021" ht="14.25" customHeight="1"/>
-    <row r="1022" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -2398,11 +2374,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z1024"/>
+  <dimension ref="A1:Z1016"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -2588,7 +2562,7 @@
         <v>20</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>21</v>
@@ -2612,10 +2586,10 @@
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1">
       <c r="A23" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B23" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14.25" customHeight="1">
@@ -2624,7 +2598,7 @@
     <row r="25" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="26" spans="1:3" ht="14.25" customHeight="1">
       <c r="A26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B26" s="7">
         <v>3</v>
@@ -2635,10 +2609,10 @@
     </row>
     <row r="28" spans="1:3" ht="14.25" customHeight="1">
       <c r="A28" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2647,18 +2621,18 @@
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1">
       <c r="A30" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" t="s">
         <v>70</v>
-      </c>
-      <c r="B30" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1">
       <c r="A31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1">
@@ -2666,7 +2640,7 @@
     </row>
     <row r="33" spans="1:3" ht="14.25" customHeight="1">
       <c r="A33" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>39</v>
@@ -2674,7 +2648,7 @@
     </row>
     <row r="34" spans="1:3" ht="14.25" customHeight="1">
       <c r="A34" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>39</v>
@@ -2686,68 +2660,68 @@
     </row>
     <row r="36" spans="1:3" ht="14.25" customHeight="1">
       <c r="A36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="14.25" customHeight="1">
       <c r="A37" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="39" spans="1:3" ht="14.25" customHeight="1">
       <c r="A39" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B39" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="14.25" customHeight="1">
       <c r="A40" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="42" spans="1:3" ht="14.25" customHeight="1">
       <c r="A42" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B42" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="14.25" customHeight="1">
       <c r="A43" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="14.25" customHeight="1">
       <c r="A45" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="14.25" customHeight="1">
       <c r="A46" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="14.25" customHeight="1">
@@ -2755,154 +2729,154 @@
     </row>
     <row r="48" spans="1:3" ht="14.25" customHeight="1">
       <c r="A48" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="14.25" customHeight="1">
       <c r="A49" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="51" spans="1:2" ht="14.25" customHeight="1">
       <c r="A51" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B51" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="14.25" customHeight="1">
       <c r="A52" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="54" spans="1:2" ht="14.25" customHeight="1">
       <c r="A54" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="14.25" customHeight="1">
       <c r="A55" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="57" spans="1:2" ht="14.25" customHeight="1">
       <c r="A57" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="14.25" customHeight="1">
       <c r="A58" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="60" spans="1:2" ht="14.25" customHeight="1">
       <c r="A60" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="14.25" customHeight="1">
       <c r="A61" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="63" spans="1:2" ht="14.25" customHeight="1">
       <c r="A63" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B63" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="14.25" customHeight="1">
       <c r="A64" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="66" spans="1:2" ht="14.25" customHeight="1">
       <c r="A66" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="14.25" customHeight="1">
       <c r="A67" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="69" spans="1:2" ht="14.25" customHeight="1">
       <c r="A69" t="s">
+        <v>110</v>
+      </c>
+      <c r="B69" s="8" t="s">
         <v>111</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="14.25" customHeight="1">
       <c r="A70" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="72" spans="1:2" ht="14.25" customHeight="1">
       <c r="A72" t="s">
+        <v>114</v>
+      </c>
+      <c r="B72" s="8" t="s">
         <v>115</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="14.25" customHeight="1">
       <c r="A73" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="14.25" customHeight="1">
@@ -2910,18 +2884,18 @@
     </row>
     <row r="75" spans="1:2" ht="14.25" customHeight="1">
       <c r="A75" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="14.25" customHeight="1">
       <c r="A76" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="14.25" customHeight="1">
@@ -2929,124 +2903,118 @@
     </row>
     <row r="78" spans="1:2" ht="14.25" customHeight="1">
       <c r="A78" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="14.25" customHeight="1">
       <c r="A79" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="14.25" customHeight="1">
       <c r="B80" s="8"/>
     </row>
-    <row r="81" spans="1:2" ht="14.25" customHeight="1">
-      <c r="B81" s="8"/>
-    </row>
+    <row r="81" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="82" spans="1:2" ht="14.25" customHeight="1">
-      <c r="B82" s="8"/>
+      <c r="A82" t="s">
+        <v>156</v>
+      </c>
+      <c r="B82" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="83" spans="1:2" ht="14.25" customHeight="1">
-      <c r="B83" s="8"/>
-    </row>
-    <row r="84" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="85" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A85" t="s">
-        <v>89</v>
-      </c>
-      <c r="B85" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A86" t="s">
-        <v>91</v>
-      </c>
-      <c r="B86" s="7">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="14.25" customHeight="1"/>
+      <c r="A83" t="s">
+        <v>157</v>
+      </c>
+      <c r="B83" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A84" t="s">
+        <v>180</v>
+      </c>
+      <c r="B84" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="86" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="87" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A87" t="s">
+        <v>65</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
     <row r="88" spans="1:2" ht="14.25" customHeight="1">
       <c r="A88" t="s">
-        <v>160</v>
-      </c>
-      <c r="B88" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A89" t="s">
-        <v>186</v>
-      </c>
-      <c r="B89" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="91" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="92" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A92" t="s">
-        <v>161</v>
-      </c>
-      <c r="B92" t="s">
-        <v>188</v>
-      </c>
-    </row>
+        <v>64</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="90" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A90" t="s">
+        <v>67</v>
+      </c>
+      <c r="B90" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A91" t="s">
+        <v>68</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="93" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="94" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A94" t="s">
-        <v>66</v>
-      </c>
-      <c r="B94" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A95" t="s">
-        <v>65</v>
-      </c>
-      <c r="B95" s="8" t="s">
-        <v>123</v>
+    <row r="94" spans="1:2" s="12" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A94" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B94" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" s="12" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A95" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B95" s="13">
+        <v>587</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="97" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A97" t="s">
-        <v>68</v>
-      </c>
-      <c r="B97" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A98" t="s">
-        <v>69</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="100" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="101" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="102" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="103" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="104" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="105" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="106" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="107" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="108" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="109" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="110" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="111" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="112" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="97" ht="14.25" customHeight="1"/>
+    <row r="98" ht="14.25" customHeight="1"/>
+    <row r="99" ht="14.25" customHeight="1"/>
+    <row r="100" ht="14.25" customHeight="1"/>
+    <row r="101" ht="14.25" customHeight="1"/>
+    <row r="102" ht="14.25" customHeight="1"/>
+    <row r="103" ht="14.25" customHeight="1"/>
+    <row r="104" ht="14.25" customHeight="1"/>
+    <row r="105" ht="14.25" customHeight="1"/>
+    <row r="106" ht="14.25" customHeight="1"/>
+    <row r="107" ht="14.25" customHeight="1"/>
+    <row r="108" ht="14.25" customHeight="1"/>
+    <row r="109" ht="14.25" customHeight="1"/>
+    <row r="110" ht="14.25" customHeight="1"/>
+    <row r="111" ht="14.25" customHeight="1"/>
+    <row r="112" ht="14.25" customHeight="1"/>
     <row r="113" ht="14.25" customHeight="1"/>
     <row r="114" ht="14.25" customHeight="1"/>
     <row r="115" ht="14.25" customHeight="1"/>
@@ -3951,14 +3919,6 @@
     <row r="1014" ht="14.25" customHeight="1"/>
     <row r="1015" ht="14.25" customHeight="1"/>
     <row r="1016" ht="14.25" customHeight="1"/>
-    <row r="1017" ht="14.25" customHeight="1"/>
-    <row r="1018" ht="14.25" customHeight="1"/>
-    <row r="1019" ht="14.25" customHeight="1"/>
-    <row r="1020" ht="14.25" customHeight="1"/>
-    <row r="1021" ht="14.25" customHeight="1"/>
-    <row r="1022" ht="14.25" customHeight="1"/>
-    <row r="1023" ht="14.25" customHeight="1"/>
-    <row r="1024" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -3967,6 +3927,7 @@
     <hyperlink ref="B34" r:id="rId3" xr:uid="{D578C2D8-D83E-4A95-AC4B-85AD1BF7983A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 

--- a/BELtd_HDFC_UTR/Data/Config.xlsx
+++ b/BELtd_HDFC_UTR/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BRADSOL\Documents\UiPath\BELtd_HDFC_UTR\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A00087-D833-458B-BDDB-80F4D8E2D59D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5AF224C-69C7-4F76-A4D9-8468AB3FD6AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1059,8 +1059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1021"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1207,7 +1207,7 @@
         <v>183</v>
       </c>
       <c r="B18" s="10">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" customHeight="1">
